--- a/biology/Botanique/Euglenophyta/Euglenophyta.xlsx
+++ b/biology/Botanique/Euglenophyta/Euglenophyta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euglénophytes, Euglénoïdes
 Les Euglenophyta ou Euglénophytes, ou encore Euglénoïdes constituent une classe de l’embranchement des Euglenozoa des Euglenobionta, composée principalement d’algues aquatiques unicellulaires.
@@ -515,7 +527,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains Euglénophytes contiennent des chloroplastes avec des pigments photosynthétiques, alors que d’autres sont hétérotrophes et peuvent ingérer ou absorber leur nourriture (par phagocytose ou osmose).
 La structure de leur cellule est typique de l’embranchement des Euglenozoa auquel elles appartiennent.
@@ -559,7 +573,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Euglénophytes vivent surtout dans les eaux douces et sont fréquentes dans les eaux riches en matières organiques. Certaines espèces se rencontrent également dans les eaux saumâtres et marines. Les espèces chlorophylliennes comme Euglena pratiquent la photosynthèse mais peuvent parfois vivre en hétérotrophe. Les espèces non chlorophylliennes se nourrissent de substances dissoutes. D'autres espèces peuvent être des saprophytes ou être capables de phagocytose.
 Les ordres d'Euglénophytes par mode de nutrition :
@@ -599,7 +615,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplonemata
 Diplonemidea
